--- a/clase14/resultado.xlsx
+++ b/clase14/resultado.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1476,6 +1476,2930 @@
         <v>15.50751217730451</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Títulos Valores De Renta Fija - Local</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>14.5471442557293</v>
+      </c>
+      <c r="C29" t="n">
+        <v>12.13134322311128</v>
+      </c>
+      <c r="D29" t="n">
+        <v>12.88828187853724</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15.30892873917106</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7.464263034226455</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.000115843944298</v>
+      </c>
+      <c r="H29" t="n">
+        <v>14.70952978542955</v>
+      </c>
+      <c r="I29" t="n">
+        <v>24.19399531275785</v>
+      </c>
+      <c r="J29" t="n">
+        <v>18.23264999784317</v>
+      </c>
+      <c r="K29" t="n">
+        <v>20.14879512280044</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Títulos Valores De Renta Fija - Exterior</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-96.5425889932534</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-100</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>143.7940241493141</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-39.41589435529993</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-10.46422165078888</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Títulos Valores De Renta Variable - Local</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6.439990467403743</v>
+      </c>
+      <c r="C31" t="n">
+        <v>40.93924372323395</v>
+      </c>
+      <c r="D31" t="n">
+        <v>95.22378700017204</v>
+      </c>
+      <c r="E31" t="n">
+        <v>88.82991731841568</v>
+      </c>
+      <c r="F31" t="n">
+        <v>32.95065761375299</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-9.585624415130379</v>
+      </c>
+      <c r="H31" t="n">
+        <v>19.91326044202506</v>
+      </c>
+      <c r="I31" t="n">
+        <v>57.42782968496645</v>
+      </c>
+      <c r="J31" t="n">
+        <v>25.83069782338215</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-15.39807680886168</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Títulos Valores De Renta Variable - Exterior</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Inversiones Por Préstamos</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>66.54553999235925</v>
+      </c>
+      <c r="C33" t="n">
+        <v>267.1082818696219</v>
+      </c>
+      <c r="D33" t="n">
+        <v>46.24257329506619</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-8.857273888347232</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-93.04376489723832</v>
+      </c>
+      <c r="G33" t="n">
+        <v>607.2491851276931</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.443190066639095</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-39.2904228980796</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-41.19842262789169</v>
+      </c>
+      <c r="K33" t="n">
+        <v>539.8559780014132</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Inversiones Inmobiliarias</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-17.62352868726489</v>
+      </c>
+      <c r="C34" t="n">
+        <v>23.47319571159866</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10.69027515167193</v>
+      </c>
+      <c r="E34" t="n">
+        <v>27.63758169849354</v>
+      </c>
+      <c r="F34" t="n">
+        <v>13.10038068609295</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-3.716556395040327</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.7477731615662463</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7.211454557425405</v>
+      </c>
+      <c r="J34" t="n">
+        <v>11.61967540944345</v>
+      </c>
+      <c r="K34" t="n">
+        <v>9.507656601507637</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Total de Inversiones</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>12.17132723192013</v>
+      </c>
+      <c r="C35" t="n">
+        <v>13.2539136728559</v>
+      </c>
+      <c r="D35" t="n">
+        <v>14.04796284905428</v>
+      </c>
+      <c r="E35" t="n">
+        <v>17.72825507338241</v>
+      </c>
+      <c r="F35" t="n">
+        <v>8.556563710853988</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.627963962201797</v>
+      </c>
+      <c r="H35" t="n">
+        <v>14.0836438536941</v>
+      </c>
+      <c r="I35" t="n">
+        <v>24.80015238428367</v>
+      </c>
+      <c r="J35" t="n">
+        <v>18.31305713103493</v>
+      </c>
+      <c r="K35" t="n">
+        <v>17.74840276483189</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Riesgos En Curso Seguros Directos</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>7.916531524499939</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10.42368943310111</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6.935338677562348</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10.64593060672061</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.4996840384644179</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12.05602629008126</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8.770615238850292</v>
+      </c>
+      <c r="I36" t="n">
+        <v>14.43476132799764</v>
+      </c>
+      <c r="J36" t="n">
+        <v>6.914041740005105</v>
+      </c>
+      <c r="K36" t="n">
+        <v>11.16185466717988</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Riesgos En Curso Grupo Coasegurador</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-2.414711503530735</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5.789662422659815</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7.489632846314609</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10.39639167231234</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-28.92858343732079</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6.822027939655655</v>
+      </c>
+      <c r="H37" t="n">
+        <v>27.49465283354241</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.891004881525257</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-5.645920638188288</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-11.51147424451723</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Riesgos En Curso Reaseguros Aceptados - Local</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-30.46170985670889</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-28.66323283074286</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5.82519258299936</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-30.77528807912024</v>
+      </c>
+      <c r="F38" t="n">
+        <v>15.0738901567151</v>
+      </c>
+      <c r="G38" t="n">
+        <v>27.83560110900882</v>
+      </c>
+      <c r="H38" t="n">
+        <v>534.5562897261563</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-25.24052895353741</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-27.16235471353161</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-11.07146857661673</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Riesgos En Curso Reaseguros Aceptados - Exterior</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-100</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>-100</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Provisiones de Riesgos En Curso [1]</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>7.379021479499194</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10.10557051865582</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.937298957894825</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10.46655940302919</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.805165190791155</v>
+      </c>
+      <c r="G40" t="n">
+        <v>12.0590815474053</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10.78289309236025</v>
+      </c>
+      <c r="I40" t="n">
+        <v>13.55050314299081</v>
+      </c>
+      <c r="J40" t="n">
+        <v>6.347991931062783</v>
+      </c>
+      <c r="K40" t="n">
+        <v>10.77913284312238</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Reservas Matemáticas [2]</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>97.62925721227258</v>
+      </c>
+      <c r="C41" t="n">
+        <v>82.50655599448369</v>
+      </c>
+      <c r="D41" t="n">
+        <v>127.5573860808859</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-16.87615954288848</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8.68260432110543</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.442783554259183</v>
+      </c>
+      <c r="H41" t="n">
+        <v>300.4842892534934</v>
+      </c>
+      <c r="I41" t="n">
+        <v>51.52596660736677</v>
+      </c>
+      <c r="J41" t="n">
+        <v>45.77871675521826</v>
+      </c>
+      <c r="K41" t="n">
+        <v>28.42651357868566</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Fondos De Acumulación [3]</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-100</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Reservas Técnicas - Seguros de Vida [4] = [2]+[3]</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>96.22917578379221</v>
+      </c>
+      <c r="C43" t="n">
+        <v>81.17276371297113</v>
+      </c>
+      <c r="D43" t="n">
+        <v>127.5573860808859</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-16.87615954288848</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8.68260432110543</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.442783554259183</v>
+      </c>
+      <c r="H43" t="n">
+        <v>300.4842892534934</v>
+      </c>
+      <c r="I43" t="n">
+        <v>51.52596660736677</v>
+      </c>
+      <c r="J43" t="n">
+        <v>45.77871675521826</v>
+      </c>
+      <c r="K43" t="n">
+        <v>28.42651357868566</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Provisiones Técnicas de Seguros [5] = [1]+[4]</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7.594354454557277</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10.41969053623046</v>
+      </c>
+      <c r="D44" t="n">
+        <v>7.812066119286569</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10.04801831459245</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.6954658796452959</v>
+      </c>
+      <c r="G44" t="n">
+        <v>11.93739609921229</v>
+      </c>
+      <c r="H44" t="n">
+        <v>14.13785421371858</v>
+      </c>
+      <c r="I44" t="n">
+        <v>15.09360916624258</v>
+      </c>
+      <c r="J44" t="n">
+        <v>8.457413090540545</v>
+      </c>
+      <c r="K44" t="n">
+        <v>12.04808040203203</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Siniestros Ocurridos Y No Reportados</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>16.05846943791473</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8.602055354158168</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6.286777195000044</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6.403655436840102</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.583797207161131</v>
+      </c>
+      <c r="G45" t="n">
+        <v>34.98471030276959</v>
+      </c>
+      <c r="H45" t="n">
+        <v>27.40771407437995</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.3582972644814444</v>
+      </c>
+      <c r="J45" t="n">
+        <v>57.14002064166181</v>
+      </c>
+      <c r="K45" t="n">
+        <v>55.30894046113313</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Siniestros Reclamados En Proceso De Liquidación</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.2538826623408147</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8.813603567238353</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.994503874934632</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.33472508548639</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.960200048458635</v>
+      </c>
+      <c r="G46" t="n">
+        <v>28.62388847111242</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-4.43174428515113</v>
+      </c>
+      <c r="I46" t="n">
+        <v>14.10007057576776</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.5962933713297685</v>
+      </c>
+      <c r="K46" t="n">
+        <v>16.76286148825328</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Siniestros Controvertidos</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-4.803444020284583</v>
+      </c>
+      <c r="C47" t="n">
+        <v>25.81317705879734</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.4621189560824628</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.689338325079318</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6.06702052257969</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-9.806747860773763</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9119102756915159</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.916444324411793</v>
+      </c>
+      <c r="J47" t="n">
+        <v>13.07433299241112</v>
+      </c>
+      <c r="K47" t="n">
+        <v>11.02010116879717</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Siniestros Riesgos Catastróficos</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>-27.30681133245664</v>
+      </c>
+      <c r="H48" t="n">
+        <v>70.27255788005429</v>
+      </c>
+      <c r="I48" t="n">
+        <v>71.66633475052963</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-100</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Provisiones Técnicas de Siniestros [6]</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.2090570182309136</v>
+      </c>
+      <c r="C49" t="n">
+        <v>11.65980456072156</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.396575347200961</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.110191603708115</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9.397660993862692</v>
+      </c>
+      <c r="G49" t="n">
+        <v>21.58975371443882</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-2.455186914415918</v>
+      </c>
+      <c r="I49" t="n">
+        <v>12.25600091508552</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.859423943855467</v>
+      </c>
+      <c r="K49" t="n">
+        <v>18.26905951623959</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Total de Provisiones Técnicas [7] = [5]+[6]</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>6.255673626542999</v>
+      </c>
+      <c r="C50" t="n">
+        <v>10.61948946364013</v>
+      </c>
+      <c r="D50" t="n">
+        <v>7.093981328183742</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8.80166994171838</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.7918290582913972</v>
+      </c>
+      <c r="G50" t="n">
+        <v>13.48118346159942</v>
+      </c>
+      <c r="H50" t="n">
+        <v>11.29435449491141</v>
+      </c>
+      <c r="I50" t="n">
+        <v>14.66741187590246</v>
+      </c>
+      <c r="J50" t="n">
+        <v>7.63429934478268</v>
+      </c>
+      <c r="K50" t="n">
+        <v>12.9222182916069</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Primas Directas</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4.280474181016756</v>
+      </c>
+      <c r="C51" t="n">
+        <v>8.923087979228523</v>
+      </c>
+      <c r="D51" t="n">
+        <v>8.005597922524649</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.980354933365941</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.332348352228126</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9.297824543354944</v>
+      </c>
+      <c r="H51" t="n">
+        <v>12.74784199795088</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9.616263781896539</v>
+      </c>
+      <c r="J51" t="n">
+        <v>10.84139787524677</v>
+      </c>
+      <c r="K51" t="n">
+        <v>10.5370404404601</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Primas Reaseguros Aceptados - Local</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-20.40715839943655</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-31.3372888609616</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-14.81935599010578</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-11.63728844383807</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-1.810900061840646</v>
+      </c>
+      <c r="G52" t="n">
+        <v>34.14559664476921</v>
+      </c>
+      <c r="H52" t="n">
+        <v>106.7091197337197</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.4918928088850996</v>
+      </c>
+      <c r="J52" t="n">
+        <v>76.75756742236427</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-17.56543228712986</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Primas Reaseguros Aceptados - Exterior</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Desafectación De Provisiones Técnicas De Seguros</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>18.80040500126475</v>
+      </c>
+      <c r="C54" t="n">
+        <v>409.0312905715671</v>
+      </c>
+      <c r="D54" t="n">
+        <v>73.63810367051829</v>
+      </c>
+      <c r="E54" t="n">
+        <v>47.11232230800628</v>
+      </c>
+      <c r="F54" t="n">
+        <v>69.38878954155541</v>
+      </c>
+      <c r="G54" t="n">
+        <v>11.81308573522141</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-12.62094645864334</v>
+      </c>
+      <c r="I54" t="n">
+        <v>138.823000944107</v>
+      </c>
+      <c r="J54" t="n">
+        <v>25.52952284893436</v>
+      </c>
+      <c r="K54" t="n">
+        <v>53.52851063635779</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ingresos Técnicos De Producción [1]</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>4.033006821064456</v>
+      </c>
+      <c r="C55" t="n">
+        <v>9.365900481857013</v>
+      </c>
+      <c r="D55" t="n">
+        <v>8.482164310595429</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5.525153409597213</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3.680129308543682</v>
+      </c>
+      <c r="G55" t="n">
+        <v>9.463286067342999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>12.26772096376022</v>
+      </c>
+      <c r="I55" t="n">
+        <v>12.95024121309975</v>
+      </c>
+      <c r="J55" t="n">
+        <v>12.09317941659785</v>
+      </c>
+      <c r="K55" t="n">
+        <v>12.93241559696784</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Primas Reaseguros Cedidos - Local</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-16.88061936423011</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-33.22222076128003</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-12.85704442094914</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-16.6972405559838</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5.460609338709159</v>
+      </c>
+      <c r="G56" t="n">
+        <v>39.44889096763697</v>
+      </c>
+      <c r="H56" t="n">
+        <v>149.9581883231186</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-13.12791098612541</v>
+      </c>
+      <c r="J56" t="n">
+        <v>26.59803635969863</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-1.43866074785739</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Primas Reaseguros Cedidos - Exterior</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>13.08491879598238</v>
+      </c>
+      <c r="C57" t="n">
+        <v>7.959139811449558</v>
+      </c>
+      <c r="D57" t="n">
+        <v>17.8501195727128</v>
+      </c>
+      <c r="E57" t="n">
+        <v>7.859404047203513</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10.68767030100337</v>
+      </c>
+      <c r="G57" t="n">
+        <v>6.501985090371298</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.024630590830295</v>
+      </c>
+      <c r="I57" t="n">
+        <v>12.86595058552436</v>
+      </c>
+      <c r="J57" t="n">
+        <v>11.4727898395765</v>
+      </c>
+      <c r="K57" t="n">
+        <v>5.284985896975479</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Constitución De Provisiones Técnicas De Seguros</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1184.972995613635</v>
+      </c>
+      <c r="C58" t="n">
+        <v>8.871855275863231</v>
+      </c>
+      <c r="D58" t="n">
+        <v>106.2901929797664</v>
+      </c>
+      <c r="E58" t="n">
+        <v>14.81658612963768</v>
+      </c>
+      <c r="F58" t="n">
+        <v>76.48062198895069</v>
+      </c>
+      <c r="G58" t="n">
+        <v>17.17915701489526</v>
+      </c>
+      <c r="H58" t="n">
+        <v>101.8159328395286</v>
+      </c>
+      <c r="I58" t="n">
+        <v>9.33368925586309</v>
+      </c>
+      <c r="J58" t="n">
+        <v>29.92125948599488</v>
+      </c>
+      <c r="K58" t="n">
+        <v>41.41853419625934</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Egresos Técnicos De Producción [2]</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>15.77908284083919</v>
+      </c>
+      <c r="C59" t="n">
+        <v>6.587964954108351</v>
+      </c>
+      <c r="D59" t="n">
+        <v>20.71772816826663</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7.953851353625837</v>
+      </c>
+      <c r="F59" t="n">
+        <v>15.39118722698911</v>
+      </c>
+      <c r="G59" t="n">
+        <v>8.0438400827747</v>
+      </c>
+      <c r="H59" t="n">
+        <v>16.09517724856544</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11.34113889277272</v>
+      </c>
+      <c r="J59" t="n">
+        <v>15.61395271825657</v>
+      </c>
+      <c r="K59" t="n">
+        <v>13.4393192751192</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Total de Primas Netas Ganadas [3]=[1]-[2]</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.754908809174646</v>
+      </c>
+      <c r="C60" t="n">
+        <v>10.25677221639471</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.688840632412643</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.656912824710488</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.6383707247539467</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10.07115452239522</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10.65882684277586</v>
+      </c>
+      <c r="I60" t="n">
+        <v>13.65986637113028</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10.5721699279871</v>
+      </c>
+      <c r="K60" t="n">
+        <v>12.70344288889072</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Constitución De Provisiones Técnicas De Siniestros</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-9.238022180221909</v>
+      </c>
+      <c r="C61" t="n">
+        <v>35.2848594548633</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-13.89682625512972</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.7028477701541597</v>
+      </c>
+      <c r="F61" t="n">
+        <v>28.74855410370732</v>
+      </c>
+      <c r="G61" t="n">
+        <v>65.16610953049535</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4.701882347665136</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-18.37242481886887</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-6.139282294247284</v>
+      </c>
+      <c r="K61" t="n">
+        <v>36.05841564104878</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Siniestros Seguros Directos</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>7.016353476754091</v>
+      </c>
+      <c r="C62" t="n">
+        <v>26.79659263600695</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-11.84761071797191</v>
+      </c>
+      <c r="E62" t="n">
+        <v>9.395919763550161</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.364261959218945</v>
+      </c>
+      <c r="G62" t="n">
+        <v>29.86263456713985</v>
+      </c>
+      <c r="H62" t="n">
+        <v>9.361421709752625</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-26.10980294220679</v>
+      </c>
+      <c r="J62" t="n">
+        <v>23.68846935336213</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.721869410530873</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Prestaciones E Indemnizaciones Seguros De Vida</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>94613.96524355448</v>
+      </c>
+      <c r="D63" t="n">
+        <v>354.860892328914</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-19.58862889806151</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-64.21805767137512</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-33.94050367109377</v>
+      </c>
+      <c r="H63" t="n">
+        <v>530.9202071800447</v>
+      </c>
+      <c r="I63" t="n">
+        <v>216.1432183128337</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-1.669998952937952</v>
+      </c>
+      <c r="K63" t="n">
+        <v>23.33068999499103</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Gastos De Liquidación De Siniestros\, Salvataje Y Recupero</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>10.60059525452787</v>
+      </c>
+      <c r="C64" t="n">
+        <v>13.17307318811336</v>
+      </c>
+      <c r="D64" t="n">
+        <v>21.65729971253066</v>
+      </c>
+      <c r="E64" t="n">
+        <v>18.27348434614184</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6.696300966178049</v>
+      </c>
+      <c r="G64" t="n">
+        <v>11.34699643260918</v>
+      </c>
+      <c r="H64" t="n">
+        <v>18.19172349348978</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-5.323609989112887</v>
+      </c>
+      <c r="J64" t="n">
+        <v>41.39136497824051</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-16.60411631191763</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Participación Recupero Reaseguros Cedidos - Local</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Participación Recupero Reaseguros Cedidos - Exterior</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>-100</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Siniestros Reaseguros Aceptados - Local</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>68.52604202901666</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-49.98565210313723</v>
+      </c>
+      <c r="D67" t="n">
+        <v>63.00758161747446</v>
+      </c>
+      <c r="E67" t="n">
+        <v>515.3729945207103</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-96.90211470816543</v>
+      </c>
+      <c r="G67" t="n">
+        <v>621.4290945738425</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-43.00443117014909</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-14.90700106660779</v>
+      </c>
+      <c r="J67" t="n">
+        <v>38.14151523573864</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-16.72574249004389</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Siniestros Reaseguros Aceptados - Exterior</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>-92.33311339657632</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-100</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Gastos de Siniestros [4]</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5.385032547665631</v>
+      </c>
+      <c r="C69" t="n">
+        <v>27.11378153417924</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-11.25459242862556</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10.71821671804392</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.497124655524899</v>
+      </c>
+      <c r="G69" t="n">
+        <v>34.16646701092716</v>
+      </c>
+      <c r="H69" t="n">
+        <v>8.831976393098822</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-24.00919358976277</v>
+      </c>
+      <c r="J69" t="n">
+        <v>19.29322305885373</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2.613650863648468</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Desafectación De Provisiones Técnicas Por Siniestros</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-8.846528080974084</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3.739103846959031</v>
+      </c>
+      <c r="D70" t="n">
+        <v>16.25901623360591</v>
+      </c>
+      <c r="E70" t="n">
+        <v>34.23305567345486</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-16.69281261142011</v>
+      </c>
+      <c r="G70" t="n">
+        <v>52.13826590378547</v>
+      </c>
+      <c r="H70" t="n">
+        <v>54.40065446397394</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-47.46601469263411</v>
+      </c>
+      <c r="J70" t="n">
+        <v>30.5413954449603</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-10.78331029648227</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Recupero De Siniestros Directos</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>-12.28122417353507</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-13.71433448537708</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-14.42600857233388</v>
+      </c>
+      <c r="E71" t="n">
+        <v>22.50582825304453</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-15.06645638932124</v>
+      </c>
+      <c r="G71" t="n">
+        <v>11.86856168073495</v>
+      </c>
+      <c r="H71" t="n">
+        <v>20.43975967111239</v>
+      </c>
+      <c r="I71" t="n">
+        <v>19.57074351306771</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6.763221940214905</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-18.40933763798789</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Siniestros Recuperados Reaseguros Cedidos – Local</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>-53.80231756782587</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-17.87080860191649</v>
+      </c>
+      <c r="D72" t="n">
+        <v>50.97874497643093</v>
+      </c>
+      <c r="E72" t="n">
+        <v>513.1044636708286</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-98.20993525080871</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1044.72065818981</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-39.18726919951604</v>
+      </c>
+      <c r="I72" t="n">
+        <v>41.56589889284767</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.890680049378295</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-27.87540010856747</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Siniestros Recuperados Reaseguros Cedidos - Exterior</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>42.37489005575632</v>
+      </c>
+      <c r="C73" t="n">
+        <v>94.28981288686381</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-32.49081322405802</v>
+      </c>
+      <c r="E73" t="n">
+        <v>17.15415614983581</v>
+      </c>
+      <c r="F73" t="n">
+        <v>34.0994660555269</v>
+      </c>
+      <c r="G73" t="n">
+        <v>21.64623808871659</v>
+      </c>
+      <c r="H73" t="n">
+        <v>17.02441152665709</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-55.99931966926929</v>
+      </c>
+      <c r="J73" t="n">
+        <v>90.07200033952955</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-19.76068230869569</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Participación Recupero Reaseguros Aceptados - Local</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Participación Recupero Reaseguros Aceptados - Exterior</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Total de Recupero de Siniestros [5]</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>17.77048039886974</v>
+      </c>
+      <c r="C76" t="n">
+        <v>62.96659567979422</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-23.54971456552333</v>
+      </c>
+      <c r="E76" t="n">
+        <v>27.80616384796871</v>
+      </c>
+      <c r="F76" t="n">
+        <v>11.24193268824641</v>
+      </c>
+      <c r="G76" t="n">
+        <v>28.17337929278544</v>
+      </c>
+      <c r="H76" t="n">
+        <v>25.06832791816974</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-51.35537319188843</v>
+      </c>
+      <c r="J76" t="n">
+        <v>66.04386259034139</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-17.64351802024241</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Siniestros Netos Ocurridos [6]=[4]-[5]</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3548575285369462</v>
+      </c>
+      <c r="C77" t="n">
+        <v>10.02572474197017</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-2.574854118582544</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.252102890579283</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-5.31688691545454</v>
+      </c>
+      <c r="G77" t="n">
+        <v>39.0899927173696</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-3.459837360056976</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.811098608536651</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-2.401258469543736</v>
+      </c>
+      <c r="K77" t="n">
+        <v>18.60625096999329</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Resultado Técnico Bruto [7]=[3]-[6]</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1.131598634919597</v>
+      </c>
+      <c r="C78" t="n">
+        <v>10.4726564753198</v>
+      </c>
+      <c r="D78" t="n">
+        <v>11.44837494989134</v>
+      </c>
+      <c r="E78" t="n">
+        <v>7.426719068707976</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2.948835900277282</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-10.39231955409831</v>
+      </c>
+      <c r="H78" t="n">
+        <v>26.1129227369536</v>
+      </c>
+      <c r="I78" t="n">
+        <v>22.75017945836062</v>
+      </c>
+      <c r="J78" t="n">
+        <v>19.67698338781636</v>
+      </c>
+      <c r="K78" t="n">
+        <v>9.325062554696602</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Reintegro De Gastos De Producción</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3.894441524663205</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6.214891253088393</v>
+      </c>
+      <c r="D79" t="n">
+        <v>16.46323828136183</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4.952403112110418</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.142893054547071</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-2.332006971653082</v>
+      </c>
+      <c r="H79" t="n">
+        <v>13.24458688203719</v>
+      </c>
+      <c r="I79" t="n">
+        <v>14.15149324604081</v>
+      </c>
+      <c r="J79" t="n">
+        <v>14.84837943333831</v>
+      </c>
+      <c r="K79" t="n">
+        <v>18.06589349351606</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Otros Ingresos Por Reaseguros Cedidos - Local</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-100</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>4802.221485056127</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-35.13077390101132</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-72.71844592417881</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-69.58412884451319</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Otros Ingresos Por Reaseguros Cedidos - Exterior</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>25.73495231798589</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.533727821303963</v>
+      </c>
+      <c r="D81" t="n">
+        <v>12.93309806597897</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.1499552835113</v>
+      </c>
+      <c r="F81" t="n">
+        <v>17.83974590818763</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-3.744637992285323</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-10.48358980404874</v>
+      </c>
+      <c r="I81" t="n">
+        <v>19.84569333704129</v>
+      </c>
+      <c r="J81" t="n">
+        <v>11.68128073070568</v>
+      </c>
+      <c r="K81" t="n">
+        <v>16.36267760945498</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Otros Ingresos Por Reaseguros Aceptados - Local</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Otros Ingresos Por Reaseguros Aceptados - Exterior</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Desafectación De Previsiones</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-10.98063966579687</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-27.69860903198843</v>
+      </c>
+      <c r="D84" t="n">
+        <v>9.21163313309383</v>
+      </c>
+      <c r="E84" t="n">
+        <v>21.99476608949701</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-37.27405573321882</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-13.63707752856224</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-23.37709980474765</v>
+      </c>
+      <c r="I84" t="n">
+        <v>82.18569074669817</v>
+      </c>
+      <c r="J84" t="n">
+        <v>18.79985707801541</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3.394410477923667</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Otros Ingresos Técnicos [8]</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>6.500640895591088</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-6.453122009586314</v>
+      </c>
+      <c r="D85" t="n">
+        <v>12.75660090734118</v>
+      </c>
+      <c r="E85" t="n">
+        <v>8.069077232459394</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-1.892089495664908</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-5.147020286476218</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-3.420117606394046</v>
+      </c>
+      <c r="I85" t="n">
+        <v>24.3959896101392</v>
+      </c>
+      <c r="J85" t="n">
+        <v>12.22661426664204</v>
+      </c>
+      <c r="K85" t="n">
+        <v>13.76286411018462</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Gastos De Producción</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1.232793844484097</v>
+      </c>
+      <c r="C86" t="n">
+        <v>10.88528266961232</v>
+      </c>
+      <c r="D86" t="n">
+        <v>8.651800260852719</v>
+      </c>
+      <c r="E86" t="n">
+        <v>6.220926136913536</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-2.093246082576405</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1.237511639773591</v>
+      </c>
+      <c r="H86" t="n">
+        <v>12.21624987652991</v>
+      </c>
+      <c r="I86" t="n">
+        <v>11.23423818627229</v>
+      </c>
+      <c r="J86" t="n">
+        <v>7.133798732751059</v>
+      </c>
+      <c r="K86" t="n">
+        <v>4.673376472493731</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Gastos De Cesión Reaseguros - Local</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-74.92801410796743</v>
+      </c>
+      <c r="C87" t="n">
+        <v>177.8614999904789</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-81.40769275319994</v>
+      </c>
+      <c r="E87" t="n">
+        <v>383.8956340961481</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-86.35469957446634</v>
+      </c>
+      <c r="G87" t="n">
+        <v>60.5962561526972</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-18.79536223628878</v>
+      </c>
+      <c r="I87" t="n">
+        <v>197.0901385903364</v>
+      </c>
+      <c r="J87" t="n">
+        <v>30.26407931795039</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-67.14474977292086</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Gastos De Cesión Reaseguros - Exterior</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-5.716220093402762</v>
+      </c>
+      <c r="C88" t="n">
+        <v>13.48882421918868</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-6.533632853493877</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5.089299825755809</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-13.5092538565249</v>
+      </c>
+      <c r="G88" t="n">
+        <v>8.385134434616504</v>
+      </c>
+      <c r="H88" t="n">
+        <v>24.78981723091028</v>
+      </c>
+      <c r="I88" t="n">
+        <v>7.720318049682463</v>
+      </c>
+      <c r="J88" t="n">
+        <v>21.61649407206293</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-5.718554554371305</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Gastos De Reaseguros Aceptados - Local</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-100</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>-27.34687905207159</v>
+      </c>
+      <c r="J89" t="n">
+        <v>44.89508548948385</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-73.11864941147745</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Gastos De Reaseguros Aceptados - Exterior</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-100</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>-93.2802264674666</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Gastos Técnicos De Explotación</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>9.726353249804456</v>
+      </c>
+      <c r="C91" t="n">
+        <v>8.014542471162747</v>
+      </c>
+      <c r="D91" t="n">
+        <v>7.538764758873927</v>
+      </c>
+      <c r="E91" t="n">
+        <v>8.020842541408189</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.690246163727836</v>
+      </c>
+      <c r="G91" t="n">
+        <v>7.354188619248597</v>
+      </c>
+      <c r="H91" t="n">
+        <v>9.2212138642822</v>
+      </c>
+      <c r="I91" t="n">
+        <v>20.86069741264782</v>
+      </c>
+      <c r="J91" t="n">
+        <v>10.11472990856335</v>
+      </c>
+      <c r="K91" t="n">
+        <v>3.836588437713299</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Constitución De Previsiones</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-7.893196844302142</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-33.07945697766833</v>
+      </c>
+      <c r="D92" t="n">
+        <v>20.59486692111174</v>
+      </c>
+      <c r="E92" t="n">
+        <v>11.92142989480811</v>
+      </c>
+      <c r="F92" t="n">
+        <v>43.68267286719611</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-57.05732187698148</v>
+      </c>
+      <c r="H92" t="n">
+        <v>9.811890230575427</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9.591511700044364</v>
+      </c>
+      <c r="J92" t="n">
+        <v>37.80975307449983</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-28.86946579514593</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Otros Egresos Técnicos [9]</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2.861506422580896</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.790743441068133</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8.101995918916865</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7.49433516078733</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3.272900654203177</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-3.81878237707862</v>
+      </c>
+      <c r="H93" t="n">
+        <v>11.72107986397618</v>
+      </c>
+      <c r="I93" t="n">
+        <v>15.33299740945541</v>
+      </c>
+      <c r="J93" t="n">
+        <v>10.92704599811359</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1.335244602267129</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Otros Resultados Técnicos [10]=[8]-[9]</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1.657071115895147</v>
+      </c>
+      <c r="C94" t="n">
+        <v>8.68940595539973</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6.712923411271064</v>
+      </c>
+      <c r="E94" t="n">
+        <v>7.313101012090735</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4.913056964113016</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-3.424355866641593</v>
+      </c>
+      <c r="H94" t="n">
+        <v>16.13712816036455</v>
+      </c>
+      <c r="I94" t="n">
+        <v>13.13482988782955</v>
+      </c>
+      <c r="J94" t="n">
+        <v>10.58047012147487</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-2.028357451262055</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Resultado Técnico Neto [11]=[7]+[10]</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-23.83544259004493</v>
+      </c>
+      <c r="C95" t="n">
+        <v>123.5600334582815</v>
+      </c>
+      <c r="D95" t="n">
+        <v>157.4495050095349</v>
+      </c>
+      <c r="E95" t="n">
+        <v>8.878720798714175</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-21.7923137537658</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-128.1300053147847</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-552.588983725719</v>
+      </c>
+      <c r="I95" t="n">
+        <v>165.8831212180743</v>
+      </c>
+      <c r="J95" t="n">
+        <v>77.29456643815546</v>
+      </c>
+      <c r="K95" t="n">
+        <v>54.177886303275</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Ingreso sobre Inversión</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-18.10645411322228</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-12.93852125739357</v>
+      </c>
+      <c r="D96" t="n">
+        <v>28.44154548534799</v>
+      </c>
+      <c r="E96" t="n">
+        <v>29.69524310011789</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-13.04506658407783</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-12.82932509812523</v>
+      </c>
+      <c r="H96" t="n">
+        <v>33.51359019940205</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.4931118906098224</v>
+      </c>
+      <c r="J96" t="n">
+        <v>95.64326234547018</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-0.2797538726335311</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Egreso sobre Inversión</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-25.42729645988291</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-19.88231624265101</v>
+      </c>
+      <c r="D97" t="n">
+        <v>36.51919151595754</v>
+      </c>
+      <c r="E97" t="n">
+        <v>53.82750109794212</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-29.04584707148827</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-5.989998662683629</v>
+      </c>
+      <c r="H97" t="n">
+        <v>13.32492955855928</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-24.80689402712657</v>
+      </c>
+      <c r="J97" t="n">
+        <v>280.0128329438749</v>
+      </c>
+      <c r="K97" t="n">
+        <v>63.73786552787093</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Resultado sobre Inversión [12]</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-12.21779968981364</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-8.193640207494441</v>
+      </c>
+      <c r="D98" t="n">
+        <v>23.62463167700626</v>
+      </c>
+      <c r="E98" t="n">
+        <v>13.80353007452026</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.197628371142965</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-17.09779106789282</v>
+      </c>
+      <c r="H98" t="n">
+        <v>47.80167288599311</v>
+      </c>
+      <c r="I98" t="n">
+        <v>14.22193084484608</v>
+      </c>
+      <c r="J98" t="n">
+        <v>29.78195814964257</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-67.24115659330316</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Ganancias Extraordinarias</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>35.20829645099015</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.165995642255053</v>
+      </c>
+      <c r="D99" t="n">
+        <v>14.77153702338216</v>
+      </c>
+      <c r="E99" t="n">
+        <v>14.85719409676049</v>
+      </c>
+      <c r="F99" t="n">
+        <v>21.22563003564627</v>
+      </c>
+      <c r="G99" t="n">
+        <v>14.83788357085789</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-34.74520262892273</v>
+      </c>
+      <c r="I99" t="n">
+        <v>82.26103550346956</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-25.72330979592277</v>
+      </c>
+      <c r="K99" t="n">
+        <v>70.57096816907337</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Pérdidas Extraordinarias</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>-53.67323068657829</v>
+      </c>
+      <c r="C100" t="n">
+        <v>569.2019509841728</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-84.68866956881054</v>
+      </c>
+      <c r="E100" t="n">
+        <v>32.77570334014688</v>
+      </c>
+      <c r="F100" t="n">
+        <v>615.3545741359471</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-82.61935281104324</v>
+      </c>
+      <c r="H100" t="n">
+        <v>101.1507242704539</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-42.21208488688314</v>
+      </c>
+      <c r="J100" t="n">
+        <v>163.6676838272303</v>
+      </c>
+      <c r="K100" t="n">
+        <v>23.33623684815283</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Resultado Extraordinario [13]</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>38.07160977792422</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-5.984706584234488</v>
+      </c>
+      <c r="D101" t="n">
+        <v>22.42385561593638</v>
+      </c>
+      <c r="E101" t="n">
+        <v>14.68477219259429</v>
+      </c>
+      <c r="F101" t="n">
+        <v>14.60675583848685</v>
+      </c>
+      <c r="G101" t="n">
+        <v>21.61474565547674</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-36.09572164535414</v>
+      </c>
+      <c r="I101" t="n">
+        <v>86.15472670958034</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-27.56242193128967</v>
+      </c>
+      <c r="K101" t="n">
+        <v>72.24053312262994</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Resultado Total antes de Impuesto [14]=[11]+[12]+[13]</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-10.56711246034953</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3.272650337573239</v>
+      </c>
+      <c r="D102" t="n">
+        <v>48.32178201719343</v>
+      </c>
+      <c r="E102" t="n">
+        <v>12.2772137783625</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-5.080787746918716</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-42.52084488312954</v>
+      </c>
+      <c r="H102" t="n">
+        <v>109.0613413601733</v>
+      </c>
+      <c r="I102" t="n">
+        <v>59.23444398742993</v>
+      </c>
+      <c r="J102" t="n">
+        <v>47.90100594312317</v>
+      </c>
+      <c r="K102" t="n">
+        <v>3.054211832462784</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Impuesto a la Renta</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-1.06538482680802</v>
+      </c>
+      <c r="C103" t="n">
+        <v>18.19382500842864</v>
+      </c>
+      <c r="D103" t="n">
+        <v>81.55076762047706</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.232335235891086</v>
+      </c>
+      <c r="F103" t="n">
+        <v>13.97400229379364</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-15.19241792910898</v>
+      </c>
+      <c r="H103" t="n">
+        <v>53.72697587445487</v>
+      </c>
+      <c r="I103" t="n">
+        <v>50.27419263183119</v>
+      </c>
+      <c r="J103" t="n">
+        <v>45.88576332615967</v>
+      </c>
+      <c r="K103" t="n">
+        <v>9.96158374115012</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Resultado Total del Ejercicio</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-11.10793486359501</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.327414054358451</v>
+      </c>
+      <c r="D104" t="n">
+        <v>45.89037737503139</v>
+      </c>
+      <c r="E104" t="n">
+        <v>13.19186662350759</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-6.647859300015522</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-45.26482405817702</v>
+      </c>
+      <c r="H104" t="n">
+        <v>117.6698768482212</v>
+      </c>
+      <c r="I104" t="n">
+        <v>60.21892259820208</v>
+      </c>
+      <c r="J104" t="n">
+        <v>48.10868085135414</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2.353076381152785</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Comisiones de Seguros Directos</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3.734585351465249</v>
+      </c>
+      <c r="C105" t="n">
+        <v>11.64674766951886</v>
+      </c>
+      <c r="D105" t="n">
+        <v>10.4770542098204</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-3.737079950341021</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-6.51370790761765</v>
+      </c>
+      <c r="G105" t="n">
+        <v>6.42180677846747</v>
+      </c>
+      <c r="H105" t="n">
+        <v>10.2250061955185</v>
+      </c>
+      <c r="I105" t="n">
+        <v>9.83992497342415</v>
+      </c>
+      <c r="J105" t="n">
+        <v>9.566401859084648</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1.907908673830842</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Siniestros Netos de Recuperos Directos</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>7.152644526272009</v>
+      </c>
+      <c r="C106" t="n">
+        <v>30.74187718010961</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-13.37264886693313</v>
+      </c>
+      <c r="E106" t="n">
+        <v>5.811462209586159</v>
+      </c>
+      <c r="F106" t="n">
+        <v>6.804133344418474</v>
+      </c>
+      <c r="G106" t="n">
+        <v>32.29840749825465</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3.920586807257859</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-20.82930590432126</v>
+      </c>
+      <c r="J106" t="n">
+        <v>18.20363375663266</v>
+      </c>
+      <c r="K106" t="n">
+        <v>4.764062455386668</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Gastos de Gestión Netos</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>6.110260500091861</v>
+      </c>
+      <c r="C107" t="n">
+        <v>5.627592920375756</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7.691968116152452</v>
+      </c>
+      <c r="E107" t="n">
+        <v>11.89348739888034</v>
+      </c>
+      <c r="F107" t="n">
+        <v>14.08107508347266</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-7.720453946293862</v>
+      </c>
+      <c r="H107" t="n">
+        <v>12.56007976395156</v>
+      </c>
+      <c r="I107" t="n">
+        <v>15.7652204601114</v>
+      </c>
+      <c r="J107" t="n">
+        <v>9.603692650211656</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.529883986829052</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Margen de Utilidad Técnica</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-12.7337010333527</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-103.8998635957885</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-3835.68578952896</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-4.964795664750754</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-42.56584038142667</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-85.96671294499187</v>
+      </c>
+      <c r="H108" t="n">
+        <v>793.8241916447747</v>
+      </c>
+      <c r="I108" t="n">
+        <v>272.8940682258168</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-1.617114927181104</v>
+      </c>
+      <c r="K108" t="n">
+        <v>47.422404844797</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Primas Directas</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>4.280474181016756</v>
+      </c>
+      <c r="C109" t="n">
+        <v>8.923087979228523</v>
+      </c>
+      <c r="D109" t="n">
+        <v>8.005597922524649</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4.980354933365941</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.332348352228126</v>
+      </c>
+      <c r="G109" t="n">
+        <v>9.297824543354944</v>
+      </c>
+      <c r="H109" t="n">
+        <v>12.74784199795088</v>
+      </c>
+      <c r="I109" t="n">
+        <v>9.616263781896539</v>
+      </c>
+      <c r="J109" t="n">
+        <v>10.84139787524677</v>
+      </c>
+      <c r="K109" t="n">
+        <v>10.5370404404601</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Comisiones de Seguros Directos</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3.734585351465249</v>
+      </c>
+      <c r="C110" t="n">
+        <v>11.64674766951886</v>
+      </c>
+      <c r="D110" t="n">
+        <v>10.4770542098204</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-3.737079950341021</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-6.51370790761765</v>
+      </c>
+      <c r="G110" t="n">
+        <v>6.42180677846747</v>
+      </c>
+      <c r="H110" t="n">
+        <v>10.2250061955185</v>
+      </c>
+      <c r="I110" t="n">
+        <v>9.83992497342415</v>
+      </c>
+      <c r="J110" t="n">
+        <v>9.566401859084648</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1.907908673830842</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Siniestros Netos Ocurridos</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.3548575285369462</v>
+      </c>
+      <c r="C111" t="n">
+        <v>10.02572474197017</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-2.574854118582544</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.252102890579283</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-5.31688691545454</v>
+      </c>
+      <c r="G111" t="n">
+        <v>39.0899927173696</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-3.459837360056976</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2.811098608536651</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-2.401258469543736</v>
+      </c>
+      <c r="K111" t="n">
+        <v>18.60625096999329</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Gastos de Gestión Netos</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>6.110260500091861</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5.627592920375756</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7.691968116152452</v>
+      </c>
+      <c r="E112" t="n">
+        <v>11.89348739888034</v>
+      </c>
+      <c r="F112" t="n">
+        <v>14.08107508347266</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-7.720453946293862</v>
+      </c>
+      <c r="H112" t="n">
+        <v>12.56007976395156</v>
+      </c>
+      <c r="I112" t="n">
+        <v>15.7652204601114</v>
+      </c>
+      <c r="J112" t="n">
+        <v>9.603692650211656</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.529883986829052</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Margen de Utilidad Técnica</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-12.7337010333527</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-103.8998635957885</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-3835.68578952896</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-4.964795664750754</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-42.56584038142667</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-85.96671294499187</v>
+      </c>
+      <c r="H113" t="n">
+        <v>793.8241916447747</v>
+      </c>
+      <c r="I113" t="n">
+        <v>272.8940682258168</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-1.617114927181104</v>
+      </c>
+      <c r="K113" t="n">
+        <v>47.422404844797</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Primas Netas Ganadas</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.754908809174646</v>
+      </c>
+      <c r="C114" t="n">
+        <v>10.25677221639471</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4.688840632412643</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4.656912824710488</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.6383707247539467</v>
+      </c>
+      <c r="G114" t="n">
+        <v>10.07115452239522</v>
+      </c>
+      <c r="H114" t="n">
+        <v>10.65882684277586</v>
+      </c>
+      <c r="I114" t="n">
+        <v>13.65986637113028</v>
+      </c>
+      <c r="J114" t="n">
+        <v>10.5721699279871</v>
+      </c>
+      <c r="K114" t="n">
+        <v>12.70344288889072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
